--- a/meta/acknowledgments.xlsx
+++ b/meta/acknowledgments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/geneticRescue_sci/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6BA074-78C5-4E4A-BBD5-BB6A20A5119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD53C25-6E55-9B48-9509-A00739497725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32820" yWindow="2520" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>"Are endangered species worth saving?" Video</t>
   </si>
   <si>
-    <t>https://youtu.be/Xr1SstxYW8w</t>
-  </si>
-  <si>
     <t>Check out other fun, thought-provoking videos at Above the Noise!</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/channel/UC4K10PNjqgGLKA3lo5V8KdQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC59OLxYOFLRqS_0HDhLs7iQ</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -545,29 +545,29 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
